--- a/data/trans_dic/P23_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo</t>
+          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo (tasa de respuesta: 98,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>10,93%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23,5%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22,45%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 17,36</t>
+          <t>0,0; 16,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 41,08</t>
+          <t>7,58; 66,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 16,78</t>
+          <t>2,32; 20,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,66; 27,26</t>
+          <t>3,3; 27,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,08; 24,77</t>
+          <t>7,9; 29,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,97; 20,25</t>
+          <t>7,99; 29,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,05; 19,64</t>
+          <t>7,8; 27,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,52; 29,9</t>
+          <t>18,36; 48,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,54; 16,82</t>
+          <t>5,6; 19,17</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,2; 53,07</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6,18; 19,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12,46; 34,27</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15,39%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23,07%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25,19%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>15,72%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>16,14%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>20,95%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>21,46%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>14,78%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>19,83%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>18,63%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>15,48%</t>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,96; 23,79</t>
+          <t>13,68; 27,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 21,45</t>
+          <t>11,72; 23,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 25,26</t>
+          <t>11,43; 24,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,41; 25,83</t>
+          <t>10,08; 21,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,08; 26,55</t>
+          <t>17,13; 29,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,06; 18,45</t>
+          <t>19,54; 32,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,57; 23,38</t>
+          <t>10,23; 20,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,41; 22,43</t>
+          <t>12,78; 23,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,27; 20,02</t>
+          <t>17,53; 27,08</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16,44; 25,62</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,95; 20,23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12,46; 21,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>18,41%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14,22%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,86%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18,28%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 24,3</t>
+          <t>8,75; 21,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 18,07</t>
+          <t>6,71; 19,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 17,74</t>
+          <t>6,39; 19,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,12; 27,31</t>
+          <t>9,2; 22,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,26; 22,08</t>
+          <t>15,55; 28,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,19; 21,74</t>
+          <t>10,83; 22,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,52; 24,19</t>
+          <t>11,7; 23,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,07; 18,68</t>
+          <t>15,23; 29,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,16; 17,94</t>
+          <t>14,39; 23,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10,16; 19,01</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 19,75</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 23,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,75; 20,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,67; 20,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,81; 18,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 24,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 22,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 18,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 21,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,23; 19,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16,01%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16,77%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14,67%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21,38%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21,46%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,89%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,63%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11,94; 20,09</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12,4; 25,42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10,15; 18,4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 19,06</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 25,94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 24,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12,63; 19,62</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,93; 26,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,09; 21,87</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15,76; 23,17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12,33; 17,75</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15,19; 21,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo (tasa de respuesta: 98,76%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5885</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>29631</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9723</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21487</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22097</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17892</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19159</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>56223</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27982</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>47523</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28883</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>77711</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20778</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7178; 63448</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2561; 22724</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5584; 46098</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10449; 39660</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8587; 31580</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9344; 33110</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32483; 85685</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14330; 49083</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24662; 107307</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14204; 45925</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>43120; 118594</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>84296</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>61046</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>65054</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>76900</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>103606</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>94456</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54137</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>87011</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>187902</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>155502</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>119190</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>163911</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>57177; 115114</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43004; 86611</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44221; 94549</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>50364; 109802</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>76917; 133040</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>73260; 121910</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>38004; 75733</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>62798; 116917</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>152043; 234866</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>121929; 190068</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>90584; 153394</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>123512; 208109</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>49480</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32485</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32739</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50460</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>90220</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>55354</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>56521</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>84688</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>139700</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>87840</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>89260</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>135148</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>28925; 69431</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18324; 51867</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17596; 53176</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31782; 76782</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>66608; 122589</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>37321; 76549</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38076; 75406</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>59972; 116052</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>109162; 176139</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>62760; 117405</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>69207; 118669</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>104025; 173909</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>139661</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>123162</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>107516</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>148847</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>215923</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>129817</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>227922</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>355584</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>290865</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>237333</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>376769</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>104172; 175218</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>91096; 186731</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>78385; 142131</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>109948; 193370</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>181516; 261961</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>137932; 202308</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>103127; 160182</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>179871; 279408</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>302716; 411530</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>246086; 361843</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>195979; 281995</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>315353; 439211</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
